--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1178.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1178.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.104976638213828</v>
+        <v>1.166801929473877</v>
       </c>
       <c r="B1">
-        <v>1.952505221204717</v>
+        <v>2.437990665435791</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.986820309788786</v>
+        <v>2.368453025817871</v>
       </c>
       <c r="E1">
-        <v>1.117236249100946</v>
+        <v>1.234015345573425</v>
       </c>
     </row>
   </sheetData>
